--- a/RheoMeasurements/run2_1__00_25_50_75_100 - Copy.xlsx
+++ b/RheoMeasurements/run2_1__00_25_50_75_100 - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\RheoMeasurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_851C560FD7927DC515F967D6C19DD1C1C1F784D2" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C0CF8113-FFB7-48FB-BA3E-439D4FFF7D7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85103977-073F-46F5-B379-DF023AE89CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0WT" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="22">
   <si>
     <t>Stress</t>
   </si>
@@ -8702,7 +8702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF7D969-8AFA-4C04-BEC1-63FBDEC592FE}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -11810,7 +11810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
